--- a/8/5/1/Importaciones 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Importaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>Serie</t>
   </si>
@@ -843,6 +843,9 @@
   <si>
     <t>01-06-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1199,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB223"/>
+  <dimension ref="A1:BB224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36858,16 +36861,16 @@
         <v>68</v>
       </c>
       <c r="V218">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="W218">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="X218">
         <v>313</v>
       </c>
       <c r="Y218">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z218">
         <v>55</v>
@@ -36879,7 +36882,7 @@
         <v>14</v>
       </c>
       <c r="AC218">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD218">
         <v>2235</v>
@@ -36962,13 +36965,13 @@
         <v>271</v>
       </c>
       <c r="B219">
-        <v>6191</v>
+        <v>6206</v>
       </c>
       <c r="C219">
-        <v>5720</v>
+        <v>5735</v>
       </c>
       <c r="D219">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="E219">
         <v>709</v>
@@ -36998,7 +37001,7 @@
         <v>88</v>
       </c>
       <c r="N219">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="O219">
         <v>126</v>
@@ -37010,7 +37013,7 @@
         <v>34</v>
       </c>
       <c r="R219">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S219">
         <v>17</v>
@@ -37022,16 +37025,16 @@
         <v>87</v>
       </c>
       <c r="V219">
-        <v>3066</v>
+        <v>3078</v>
       </c>
       <c r="W219">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="X219">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Y219">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z219">
         <v>84</v>
@@ -37040,10 +37043,10 @@
         <v>86</v>
       </c>
       <c r="AB219">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC219">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AD219">
         <v>2230</v>
@@ -37094,7 +37097,7 @@
         <v>60</v>
       </c>
       <c r="AT219">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU219">
         <v>76</v>
@@ -37126,16 +37129,16 @@
         <v>272</v>
       </c>
       <c r="B220">
-        <v>7432</v>
+        <v>7443</v>
       </c>
       <c r="C220">
-        <v>6870</v>
+        <v>6882</v>
       </c>
       <c r="D220">
         <v>2314</v>
       </c>
       <c r="E220">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F220">
         <v>274</v>
@@ -37162,7 +37165,7 @@
         <v>94</v>
       </c>
       <c r="N220">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O220">
         <v>165</v>
@@ -37177,7 +37180,7 @@
         <v>37</v>
       </c>
       <c r="S220">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T220">
         <v>104</v>
@@ -37186,37 +37189,37 @@
         <v>109</v>
       </c>
       <c r="V220">
-        <v>3595</v>
+        <v>3607</v>
       </c>
       <c r="W220">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="X220">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Y220">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z220">
         <v>80</v>
       </c>
       <c r="AA220">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB220">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC220">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AD220">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="AE220">
         <v>371</v>
       </c>
       <c r="AF220">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG220">
         <v>320</v>
@@ -37225,7 +37228,7 @@
         <v>55</v>
       </c>
       <c r="AI220">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ220">
         <v>33</v>
@@ -37290,52 +37293,52 @@
         <v>273</v>
       </c>
       <c r="B221">
-        <v>6570</v>
+        <v>6477</v>
       </c>
       <c r="C221">
-        <v>6075</v>
+        <v>5986</v>
       </c>
       <c r="D221">
-        <v>1965</v>
+        <v>1906</v>
       </c>
       <c r="E221">
-        <v>878</v>
+        <v>849</v>
       </c>
       <c r="F221">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G221">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H221">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I221">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J221">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K221">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="L221">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="M221">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N221">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="O221">
         <v>165</v>
       </c>
       <c r="P221">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q221">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R221">
         <v>18</v>
@@ -37347,49 +37350,49 @@
         <v>97</v>
       </c>
       <c r="U221">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V221">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="W221">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="X221">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Y221">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Z221">
         <v>106</v>
       </c>
       <c r="AA221">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AB221">
         <v>3</v>
       </c>
       <c r="AC221">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AD221">
-        <v>2400</v>
+        <v>2377</v>
       </c>
       <c r="AE221">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF221">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG221">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AH221">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI221">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AJ221">
         <v>28</v>
@@ -37407,22 +37410,22 @@
         <v>50</v>
       </c>
       <c r="AO221">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AP221">
-        <v>1413</v>
+        <v>1380</v>
       </c>
       <c r="AQ221">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AR221">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AS221">
         <v>13</v>
       </c>
       <c r="AT221">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AU221">
         <v>153</v>
@@ -37431,22 +37434,22 @@
         <v>13</v>
       </c>
       <c r="AW221">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AX221">
         <v>1</v>
       </c>
       <c r="AY221">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AZ221">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="BA221">
+        <v>97</v>
+      </c>
+      <c r="BB221">
         <v>100</v>
-      </c>
-      <c r="BB221">
-        <v>101</v>
       </c>
     </row>
     <row r="222" spans="1:54">
@@ -37454,43 +37457,43 @@
         <v>274</v>
       </c>
       <c r="B222">
-        <v>7159</v>
+        <v>7251</v>
       </c>
       <c r="C222">
-        <v>6606</v>
+        <v>6693</v>
       </c>
       <c r="D222">
-        <v>2115</v>
+        <v>2166</v>
       </c>
       <c r="E222">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="F222">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="G222">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H222">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I222">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J222">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K222">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="L222">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M222">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N222">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="O222">
         <v>148</v>
@@ -37511,37 +37514,37 @@
         <v>116</v>
       </c>
       <c r="U222">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V222">
-        <v>3525</v>
+        <v>3545</v>
       </c>
       <c r="W222">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="X222">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y222">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Z222">
         <v>85</v>
       </c>
       <c r="AA222">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB222">
         <v>0</v>
       </c>
       <c r="AC222">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD222">
-        <v>2620</v>
+        <v>2631</v>
       </c>
       <c r="AE222">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF222">
         <v>88</v>
@@ -37553,10 +37556,10 @@
         <v>75</v>
       </c>
       <c r="AI222">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AJ222">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK222">
         <v>44</v>
@@ -37571,16 +37574,16 @@
         <v>46</v>
       </c>
       <c r="AO222">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AP222">
-        <v>1519</v>
+        <v>1540</v>
       </c>
       <c r="AQ222">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AR222">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AS222">
         <v>4</v>
@@ -37595,19 +37598,19 @@
         <v>17</v>
       </c>
       <c r="AW222">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AX222">
         <v>1</v>
       </c>
       <c r="AY222">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AZ222">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="BA222">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BB222">
         <v>87</v>
@@ -37618,43 +37621,43 @@
         <v>275</v>
       </c>
       <c r="B223">
-        <v>6912</v>
+        <v>6944</v>
       </c>
       <c r="C223">
-        <v>6350</v>
+        <v>6381</v>
       </c>
       <c r="D223">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E223">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="F223">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G223">
         <v>100</v>
       </c>
       <c r="H223">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I223">
         <v>66</v>
       </c>
       <c r="J223">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K223">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="L223">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M223">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N223">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O223">
         <v>152</v>
@@ -37678,16 +37681,16 @@
         <v>100</v>
       </c>
       <c r="V223">
-        <v>3531</v>
+        <v>3543</v>
       </c>
       <c r="W223">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="X223">
         <v>401</v>
       </c>
       <c r="Y223">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Z223">
         <v>77</v>
@@ -37699,10 +37702,10 @@
         <v>0</v>
       </c>
       <c r="AC223">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AD223">
-        <v>2598</v>
+        <v>2603</v>
       </c>
       <c r="AE223">
         <v>422</v>
@@ -37711,13 +37714,13 @@
         <v>108</v>
       </c>
       <c r="AG223">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH223">
         <v>60</v>
       </c>
       <c r="AI223">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ223">
         <v>36</v>
@@ -37735,16 +37738,16 @@
         <v>51</v>
       </c>
       <c r="AO223">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AP223">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="AQ223">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AR223">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS223">
         <v>4</v>
@@ -37765,16 +37768,180 @@
         <v>1</v>
       </c>
       <c r="AY223">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AZ223">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BA223">
         <v>85</v>
       </c>
       <c r="BB223">
         <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="1:54">
+      <c r="A224" t="s">
+        <v>276</v>
+      </c>
+      <c r="B224">
+        <v>8055</v>
+      </c>
+      <c r="C224">
+        <v>7339</v>
+      </c>
+      <c r="D224">
+        <v>2493</v>
+      </c>
+      <c r="E224">
+        <v>1009</v>
+      </c>
+      <c r="F224">
+        <v>345</v>
+      </c>
+      <c r="G224">
+        <v>119</v>
+      </c>
+      <c r="H224">
+        <v>197</v>
+      </c>
+      <c r="I224">
+        <v>71</v>
+      </c>
+      <c r="J224">
+        <v>100</v>
+      </c>
+      <c r="K224">
+        <v>632</v>
+      </c>
+      <c r="L224">
+        <v>258</v>
+      </c>
+      <c r="M224">
+        <v>115</v>
+      </c>
+      <c r="N224">
+        <v>853</v>
+      </c>
+      <c r="O224">
+        <v>195</v>
+      </c>
+      <c r="P224">
+        <v>144</v>
+      </c>
+      <c r="Q224">
+        <v>36</v>
+      </c>
+      <c r="R224">
+        <v>28</v>
+      </c>
+      <c r="S224">
+        <v>48</v>
+      </c>
+      <c r="T224">
+        <v>113</v>
+      </c>
+      <c r="U224">
+        <v>107</v>
+      </c>
+      <c r="V224">
+        <v>4071</v>
+      </c>
+      <c r="W224">
+        <v>1092</v>
+      </c>
+      <c r="X224">
+        <v>340</v>
+      </c>
+      <c r="Y224">
+        <v>329</v>
+      </c>
+      <c r="Z224">
+        <v>132</v>
+      </c>
+      <c r="AA224">
+        <v>135</v>
+      </c>
+      <c r="AB224">
+        <v>3</v>
+      </c>
+      <c r="AC224">
+        <v>48</v>
+      </c>
+      <c r="AD224">
+        <v>2979</v>
+      </c>
+      <c r="AE224">
+        <v>482</v>
+      </c>
+      <c r="AF224">
+        <v>115</v>
+      </c>
+      <c r="AG224">
+        <v>392</v>
+      </c>
+      <c r="AH224">
+        <v>58</v>
+      </c>
+      <c r="AI224">
+        <v>258</v>
+      </c>
+      <c r="AJ224">
+        <v>40</v>
+      </c>
+      <c r="AK224">
+        <v>43</v>
+      </c>
+      <c r="AL224">
+        <v>102</v>
+      </c>
+      <c r="AM224">
+        <v>30</v>
+      </c>
+      <c r="AN224">
+        <v>60</v>
+      </c>
+      <c r="AO224">
+        <v>111</v>
+      </c>
+      <c r="AP224">
+        <v>1491</v>
+      </c>
+      <c r="AQ224">
+        <v>224</v>
+      </c>
+      <c r="AR224">
+        <v>36</v>
+      </c>
+      <c r="AS224">
+        <v>24</v>
+      </c>
+      <c r="AT224">
+        <v>103</v>
+      </c>
+      <c r="AU224">
+        <v>94</v>
+      </c>
+      <c r="AV224">
+        <v>20</v>
+      </c>
+      <c r="AW224">
+        <v>45</v>
+      </c>
+      <c r="AX224">
+        <v>1</v>
+      </c>
+      <c r="AY224">
+        <v>391</v>
+      </c>
+      <c r="AZ224">
+        <v>95</v>
+      </c>
+      <c r="BA224">
+        <v>118</v>
+      </c>
+      <c r="BB224">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/8/5/1/Importaciones 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Importaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Serie</t>
   </si>
@@ -846,6 +846,9 @@
   <si>
     <t>01-07-2021</t>
   </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1202,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB224"/>
+  <dimension ref="A1:BB225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37944,6 +37947,170 @@
         <v>88</v>
       </c>
     </row>
+    <row r="225" spans="1:54">
+      <c r="A225" t="s">
+        <v>277</v>
+      </c>
+      <c r="B225">
+        <v>8611</v>
+      </c>
+      <c r="C225">
+        <v>7816</v>
+      </c>
+      <c r="D225">
+        <v>2588</v>
+      </c>
+      <c r="E225">
+        <v>1010</v>
+      </c>
+      <c r="F225">
+        <v>275</v>
+      </c>
+      <c r="G225">
+        <v>121</v>
+      </c>
+      <c r="H225">
+        <v>186</v>
+      </c>
+      <c r="I225">
+        <v>112</v>
+      </c>
+      <c r="J225">
+        <v>111</v>
+      </c>
+      <c r="K225">
+        <v>688</v>
+      </c>
+      <c r="L225">
+        <v>295</v>
+      </c>
+      <c r="M225">
+        <v>103</v>
+      </c>
+      <c r="N225">
+        <v>889</v>
+      </c>
+      <c r="O225">
+        <v>234</v>
+      </c>
+      <c r="P225">
+        <v>156</v>
+      </c>
+      <c r="Q225">
+        <v>43</v>
+      </c>
+      <c r="R225">
+        <v>23</v>
+      </c>
+      <c r="S225">
+        <v>42</v>
+      </c>
+      <c r="T225">
+        <v>88</v>
+      </c>
+      <c r="U225">
+        <v>119</v>
+      </c>
+      <c r="V225">
+        <v>4403</v>
+      </c>
+      <c r="W225">
+        <v>1240</v>
+      </c>
+      <c r="X225">
+        <v>404</v>
+      </c>
+      <c r="Y225">
+        <v>347</v>
+      </c>
+      <c r="Z225">
+        <v>96</v>
+      </c>
+      <c r="AA225">
+        <v>235</v>
+      </c>
+      <c r="AB225">
+        <v>16</v>
+      </c>
+      <c r="AC225">
+        <v>47</v>
+      </c>
+      <c r="AD225">
+        <v>3162</v>
+      </c>
+      <c r="AE225">
+        <v>456</v>
+      </c>
+      <c r="AF225">
+        <v>194</v>
+      </c>
+      <c r="AG225">
+        <v>391</v>
+      </c>
+      <c r="AH225">
+        <v>72</v>
+      </c>
+      <c r="AI225">
+        <v>277</v>
+      </c>
+      <c r="AJ225">
+        <v>41</v>
+      </c>
+      <c r="AK225">
+        <v>70</v>
+      </c>
+      <c r="AL225">
+        <v>113</v>
+      </c>
+      <c r="AM225">
+        <v>45</v>
+      </c>
+      <c r="AN225">
+        <v>63</v>
+      </c>
+      <c r="AO225">
+        <v>92</v>
+      </c>
+      <c r="AP225">
+        <v>1621</v>
+      </c>
+      <c r="AQ225">
+        <v>252</v>
+      </c>
+      <c r="AR225">
+        <v>28</v>
+      </c>
+      <c r="AS225">
+        <v>13</v>
+      </c>
+      <c r="AT225">
+        <v>100</v>
+      </c>
+      <c r="AU225">
+        <v>123</v>
+      </c>
+      <c r="AV225">
+        <v>15</v>
+      </c>
+      <c r="AW225">
+        <v>55</v>
+      </c>
+      <c r="AX225">
+        <v>1</v>
+      </c>
+      <c r="AY225">
+        <v>483</v>
+      </c>
+      <c r="AZ225">
+        <v>93</v>
+      </c>
+      <c r="BA225">
+        <v>105</v>
+      </c>
+      <c r="BB225">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/5/1/Importaciones 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Importaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>Serie</t>
   </si>
@@ -849,6 +849,9 @@
   <si>
     <t>01-08-2021</t>
   </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1205,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB225"/>
+  <dimension ref="A1:BB226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38111,6 +38114,170 @@
         <v>90</v>
       </c>
     </row>
+    <row r="226" spans="1:54">
+      <c r="A226" t="s">
+        <v>278</v>
+      </c>
+      <c r="B226">
+        <v>8096</v>
+      </c>
+      <c r="C226">
+        <v>7350</v>
+      </c>
+      <c r="D226">
+        <v>2476</v>
+      </c>
+      <c r="E226">
+        <v>1007</v>
+      </c>
+      <c r="F226">
+        <v>282</v>
+      </c>
+      <c r="G226">
+        <v>104</v>
+      </c>
+      <c r="H226">
+        <v>183</v>
+      </c>
+      <c r="I226">
+        <v>141</v>
+      </c>
+      <c r="J226">
+        <v>101</v>
+      </c>
+      <c r="K226">
+        <v>613</v>
+      </c>
+      <c r="L226">
+        <v>261</v>
+      </c>
+      <c r="M226">
+        <v>93</v>
+      </c>
+      <c r="N226">
+        <v>855</v>
+      </c>
+      <c r="O226">
+        <v>208</v>
+      </c>
+      <c r="P226">
+        <v>150</v>
+      </c>
+      <c r="Q226">
+        <v>46</v>
+      </c>
+      <c r="R226">
+        <v>29</v>
+      </c>
+      <c r="S226">
+        <v>39</v>
+      </c>
+      <c r="T226">
+        <v>91</v>
+      </c>
+      <c r="U226">
+        <v>115</v>
+      </c>
+      <c r="V226">
+        <v>4125</v>
+      </c>
+      <c r="W226">
+        <v>1374</v>
+      </c>
+      <c r="X226">
+        <v>449</v>
+      </c>
+      <c r="Y226">
+        <v>392</v>
+      </c>
+      <c r="Z226">
+        <v>154</v>
+      </c>
+      <c r="AA226">
+        <v>218</v>
+      </c>
+      <c r="AB226">
+        <v>32</v>
+      </c>
+      <c r="AC226">
+        <v>38</v>
+      </c>
+      <c r="AD226">
+        <v>2751</v>
+      </c>
+      <c r="AE226">
+        <v>383</v>
+      </c>
+      <c r="AF226">
+        <v>146</v>
+      </c>
+      <c r="AG226">
+        <v>372</v>
+      </c>
+      <c r="AH226">
+        <v>56</v>
+      </c>
+      <c r="AI226">
+        <v>228</v>
+      </c>
+      <c r="AJ226">
+        <v>41</v>
+      </c>
+      <c r="AK226">
+        <v>57</v>
+      </c>
+      <c r="AL226">
+        <v>107</v>
+      </c>
+      <c r="AM226">
+        <v>33</v>
+      </c>
+      <c r="AN226">
+        <v>58</v>
+      </c>
+      <c r="AO226">
+        <v>83</v>
+      </c>
+      <c r="AP226">
+        <v>1495</v>
+      </c>
+      <c r="AQ226">
+        <v>215</v>
+      </c>
+      <c r="AR226">
+        <v>29</v>
+      </c>
+      <c r="AS226">
+        <v>18</v>
+      </c>
+      <c r="AT226">
+        <v>100</v>
+      </c>
+      <c r="AU226">
+        <v>111</v>
+      </c>
+      <c r="AV226">
+        <v>19</v>
+      </c>
+      <c r="AW226">
+        <v>48</v>
+      </c>
+      <c r="AX226">
+        <v>1</v>
+      </c>
+      <c r="AY226">
+        <v>428</v>
+      </c>
+      <c r="AZ226">
+        <v>89</v>
+      </c>
+      <c r="BA226">
+        <v>84</v>
+      </c>
+      <c r="BB226">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/5/1/Importaciones 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Importaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Serie</t>
   </si>
@@ -852,6 +852,9 @@
   <si>
     <t>01-09-2021</t>
   </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1208,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB226"/>
+  <dimension ref="A1:BB227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38278,6 +38281,170 @@
         <v>93</v>
       </c>
     </row>
+    <row r="227" spans="1:54">
+      <c r="A227" t="s">
+        <v>279</v>
+      </c>
+      <c r="B227">
+        <v>8988</v>
+      </c>
+      <c r="C227">
+        <v>8120</v>
+      </c>
+      <c r="D227">
+        <v>2822</v>
+      </c>
+      <c r="E227">
+        <v>1106</v>
+      </c>
+      <c r="F227">
+        <v>316</v>
+      </c>
+      <c r="G227">
+        <v>110</v>
+      </c>
+      <c r="H227">
+        <v>196</v>
+      </c>
+      <c r="I227">
+        <v>135</v>
+      </c>
+      <c r="J227">
+        <v>126</v>
+      </c>
+      <c r="K227">
+        <v>751</v>
+      </c>
+      <c r="L227">
+        <v>332</v>
+      </c>
+      <c r="M227">
+        <v>102</v>
+      </c>
+      <c r="N227">
+        <v>965</v>
+      </c>
+      <c r="O227">
+        <v>193</v>
+      </c>
+      <c r="P227">
+        <v>158</v>
+      </c>
+      <c r="Q227">
+        <v>49</v>
+      </c>
+      <c r="R227">
+        <v>112</v>
+      </c>
+      <c r="S227">
+        <v>38</v>
+      </c>
+      <c r="T227">
+        <v>92</v>
+      </c>
+      <c r="U227">
+        <v>128</v>
+      </c>
+      <c r="V227">
+        <v>4404</v>
+      </c>
+      <c r="W227">
+        <v>1187</v>
+      </c>
+      <c r="X227">
+        <v>346</v>
+      </c>
+      <c r="Y227">
+        <v>348</v>
+      </c>
+      <c r="Z227">
+        <v>161</v>
+      </c>
+      <c r="AA227">
+        <v>82</v>
+      </c>
+      <c r="AB227">
+        <v>42</v>
+      </c>
+      <c r="AC227">
+        <v>89</v>
+      </c>
+      <c r="AD227">
+        <v>3217</v>
+      </c>
+      <c r="AE227">
+        <v>450</v>
+      </c>
+      <c r="AF227">
+        <v>111</v>
+      </c>
+      <c r="AG227">
+        <v>564</v>
+      </c>
+      <c r="AH227">
+        <v>59</v>
+      </c>
+      <c r="AI227">
+        <v>268</v>
+      </c>
+      <c r="AJ227">
+        <v>45</v>
+      </c>
+      <c r="AK227">
+        <v>57</v>
+      </c>
+      <c r="AL227">
+        <v>115</v>
+      </c>
+      <c r="AM227">
+        <v>57</v>
+      </c>
+      <c r="AN227">
+        <v>72</v>
+      </c>
+      <c r="AO227">
+        <v>102</v>
+      </c>
+      <c r="AP227">
+        <v>1762</v>
+      </c>
+      <c r="AQ227">
+        <v>252</v>
+      </c>
+      <c r="AR227">
+        <v>30</v>
+      </c>
+      <c r="AS227">
+        <v>49</v>
+      </c>
+      <c r="AT227">
+        <v>104</v>
+      </c>
+      <c r="AU227">
+        <v>171</v>
+      </c>
+      <c r="AV227">
+        <v>19</v>
+      </c>
+      <c r="AW227">
+        <v>57</v>
+      </c>
+      <c r="AX227">
+        <v>1</v>
+      </c>
+      <c r="AY227">
+        <v>486</v>
+      </c>
+      <c r="AZ227">
+        <v>96</v>
+      </c>
+      <c r="BA227">
+        <v>87</v>
+      </c>
+      <c r="BB227">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
